--- a/meta/program/BlancoVueComponentTask.xlsx
+++ b/meta/program/BlancoVueComponentTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6795E503-6D3A-D844-A9EE-992F8877A4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A6D8D-560A-A441-8FC8-8A97826F09A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6980" yWindow="600" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -364,12 +364,44 @@
     <t>Vueコンポーネント定義書からソースコードを自動生成する BlancoVueComponentのAntTaskです。</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>searchTmpdir</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>import文作成のために検索するtmpディレクトリをカンマ区切りで指定します。指定ディレクトリ直下のvalueobjectディレクトリの下にxmlを探しにいきます。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ケンサク </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">チョッカ </t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t xml:space="preserve">シタニ </t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -422,6 +454,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -829,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -989,6 +1027,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1357,10 +1404,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1560,7 +1607,7 @@
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="49">
-        <f t="shared" ref="A16:A23" si="0">A15+1</f>
+        <f t="shared" ref="A16:A24" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="50" t="s">
@@ -1580,7 +1627,7 @@
       <c r="H16" s="78"/>
       <c r="I16" s="79"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1600,7 +1647,7 @@
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1622,7 +1669,7 @@
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1644,7 +1691,7 @@
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="49">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1666,7 +1713,7 @@
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" ht="66" customHeight="1">
+    <row r="21" spans="1:10" ht="66" customHeight="1">
       <c r="A21" s="49">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1688,7 +1735,7 @@
       <c r="H21" s="75"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9" ht="52" customHeight="1">
+    <row r="22" spans="1:10" ht="52" customHeight="1">
       <c r="A22" s="49">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1708,7 +1755,7 @@
       <c r="H22" s="64"/>
       <c r="I22" s="65"/>
     </row>
-    <row r="23" spans="1:9" ht="52" customHeight="1">
+    <row r="23" spans="1:10" ht="52" customHeight="1">
       <c r="A23" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1730,18 +1777,28 @@
       <c r="H23" s="64"/>
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9">
+    <row r="24" spans="1:10" s="87" customFormat="1" ht="41" customHeight="1">
+      <c r="A24" s="83">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="22"/>
       <c r="B25" s="23"/>
       <c r="C25" s="42"/>
@@ -1752,7 +1809,7 @@
       <c r="H25" s="26"/>
       <c r="I25" s="27"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="22"/>
       <c r="B26" s="23"/>
       <c r="C26" s="42"/>
@@ -1763,7 +1820,7 @@
       <c r="H26" s="26"/>
       <c r="I26" s="27"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="42"/>
@@ -1774,19 +1831,31 @@
       <c r="H27" s="26"/>
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+    <row r="28" spans="1:10">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="F24:I24"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -1806,14 +1875,14 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F45" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D28" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C28" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoVueComponentTask.xlsx
+++ b/meta/program/BlancoVueComponentTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A6D8D-560A-A441-8FC8-8A97826F09A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C5A73B-66AF-A548-B1EE-847808B3FF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="600" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="3320" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -291,46 +291,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>未指定または空文字でなかった場合に、対象ディレクトリ内の自動生成したクラスの一覧をプロパティにもつValueObjectを生成します。ValueObjectのクラス名を指定します。事前にExcelシートの作成が必要です。</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ミシテイ </t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t xml:space="preserve">カラモジ </t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">バアイニ </t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t xml:space="preserve">シテイ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t xml:space="preserve">タイショウディレクトリ </t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t xml:space="preserve">ナイ </t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t xml:space="preserve">イｊドウセイセイ </t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t xml:space="preserve">イチラｎ </t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t xml:space="preserve">シテイシマス。 </t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t xml:space="preserve">ジゼｎ </t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t xml:space="preserve">サクセイ </t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t xml:space="preserve">ヒツヨウデス。 セイセイシマス。 </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>listClass</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -394,6 +354,168 @@
     <rPh sb="75" eb="76">
       <t xml:space="preserve">サガシニ </t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"alias"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>未指定または空文字でなかった場合に、対象ディレクトリ内の自動生成した画面コンポーネントのRouteRecordクラスの一覧を返す関数を生成します。この関数はvue-routerの初期設定に使用されます。関数名は . 区切りの配置場所を含めて指定します。事前にExcelシートの作成が必要です。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ミシテイ </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">カラモジ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">バアイニ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">タイショウディレクトリ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t xml:space="preserve">ナイ </t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t xml:space="preserve">イｊドウセイセイ </t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t xml:space="preserve">カエス </t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t xml:space="preserve">カンスウハ </t>
+    </rPh>
+    <rPh sb="89" eb="93">
+      <t xml:space="preserve">ショキセッテイニ </t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t xml:space="preserve">シヨウサレマス。 </t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t xml:space="preserve">カンスウヲ </t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t xml:space="preserve">クギリ </t>
+    </rPh>
+    <rPh sb="112" eb="116">
+      <t xml:space="preserve">ハイチバショ </t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t xml:space="preserve">フクメテ </t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t xml:space="preserve">ジゼｎ </t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t xml:space="preserve">ヒツヨウデス。 セイセイシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>未指定または空文字でなかった場合に、対象ディレクトリ内の自動生成したコンポーネント別名をキーとして、RouteRecord 関数を返す連想配列を生成します。ファイル名は . 区切りの配置場所を含めて指定します。事前にExcelシートの作成が必要です。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ミシテイ </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">カラモジ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">バアイニ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">タイショウディレクトリ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">ベツメイ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t xml:space="preserve">カエス </t>
+    </rPh>
+    <rPh sb="67" eb="71">
+      <t xml:space="preserve">レンソウハイレツ </t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t xml:space="preserve">クギリ </t>
+    </rPh>
+    <rPh sb="91" eb="95">
+      <t xml:space="preserve">ハイチバショ </t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t xml:space="preserve">フクメテ </t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t xml:space="preserve">ジゼｎ </t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t xml:space="preserve">サクセイガ </t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t xml:space="preserve">ヒツヨウデス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>routeRecordMap</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>routeRecordMap のキーとして使用する項目を指定します。項目名にはClassStructureで定義しているプロパティ名を使用します。</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">コウモク </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t xml:space="preserve">コウモクメイ </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t xml:space="preserve">シヨウシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>routeRecordMapKey</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -867,24 +989,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,9 +1018,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -911,19 +1028,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -942,7 +1056,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,76 +1071,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,8 +1093,58 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1404,10 +1513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1428,7 +1537,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1453,58 +1562,56 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+      <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10"/>
@@ -1516,216 +1623,216 @@
       <c r="G10"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
-      <c r="A14" s="44">
+      <c r="A14" s="36">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="67" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
-      <c r="A15" s="49">
+      <c r="A15" s="41">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="60" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
-      <c r="A16" s="49">
-        <f t="shared" ref="A16:A24" si="0">A15+1</f>
+      <c r="A16" s="41">
+        <f t="shared" ref="A16:B27" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="49">
+      <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="49">
+      <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="54">
+      <c r="D18" s="44"/>
+      <c r="E18" s="46">
         <v>4</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="49">
+      <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="56" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="49">
+      <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="58" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:10" ht="66" customHeight="1">
-      <c r="A21" s="49">
+      <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="61" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="52" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="74" t="s">
@@ -1735,128 +1842,173 @@
       <c r="H21" s="75"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:10" ht="52" customHeight="1">
-      <c r="A22" s="49">
+    <row r="22" spans="1:10" ht="56" customHeight="1">
+      <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:10" ht="52" customHeight="1">
-      <c r="A23" s="49">
+      <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="42" t="s">
+      <c r="B23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="61" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-    </row>
-    <row r="24" spans="1:10" s="87" customFormat="1" ht="41" customHeight="1">
-      <c r="A24" s="83">
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
+    </row>
+    <row r="24" spans="1:10" s="57" customFormat="1" ht="41" customHeight="1">
+      <c r="A24" s="54">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="63" t="s">
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="46" customHeight="1">
+      <c r="A25" s="41">
+        <f t="shared" ref="A25:B25" si="1">A24+1</f>
+        <v>12</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="F25" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="1:10" ht="65" customHeight="1">
+      <c r="A26" s="41">
+        <f t="shared" ref="A26:B26" si="2">A25+1</f>
+        <v>13</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1867,22 +2019,22 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F26:I26"/>
     <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F25:I25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F45" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D31" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>
@@ -1915,10 +2067,10 @@
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="F1" s="34" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1926,63 +2078,63 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="40"/>
+      <c r="A10" s="32"/>
       <c r="B10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40"/>
+      <c r="A11" s="32"/>
       <c r="B11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
+      <c r="A12" s="33"/>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:6">

--- a/meta/program/BlancoVueComponentTask.xlsx
+++ b/meta/program/BlancoVueComponentTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C5A73B-66AF-A548-B1EE-847808B3FF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F246699F-2958-F648-A516-3AD0866BA5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="3320" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -516,6 +516,71 @@
   </si>
   <si>
     <t>routeRecordMapKey</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"name"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>未指定または空文字でなかった場合に、指定された配置場所にパンくずリストデータの為のインタフェイスを生成します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ミシテイ </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">カラモジ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">バアイニ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シテイサレタ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">バショモ </t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">タメノ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>breadCrumbInterface</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>routeRecordBreadCrumbName</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>routeRecord#meta の breadCrumb.name に設定する項目を指定します。項目名にはClassStructureで定義しているプロパティ名を使用します。</t>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">コウモク </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t xml:space="preserve">コウモクメイ </t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t xml:space="preserve">シヨウシマス。 </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1095,6 +1160,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,6 +1179,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,24 +1203,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,10 +1578,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1562,10 +1627,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
@@ -1574,10 +1639,10 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
@@ -1588,10 +1653,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1602,10 +1667,10 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1636,38 +1701,38 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="36">
@@ -1683,12 +1748,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="41">
@@ -1705,16 +1770,16 @@
       <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="41">
-        <f t="shared" ref="A16:B27" si="0">A15+1</f>
+        <f t="shared" ref="A16:A24" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="42" t="s">
@@ -1727,12 +1792,12 @@
       <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41">
@@ -1855,12 +1920,12 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="52" customHeight="1">
       <c r="A23" s="41">
@@ -1877,12 +1942,12 @@
       <c r="E23" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="41" customHeight="1">
       <c r="A24" s="54">
@@ -1897,17 +1962,17 @@
       </c>
       <c r="D24" s="56"/>
       <c r="E24" s="49"/>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="46" customHeight="1">
       <c r="A25" s="41">
-        <f t="shared" ref="A25:B25" si="1">A24+1</f>
+        <f t="shared" ref="A25" si="1">A24+1</f>
         <v>12</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -1918,18 +1983,18 @@
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="64"/>
     </row>
     <row r="26" spans="1:10" ht="65" customHeight="1">
       <c r="A26" s="41">
-        <f t="shared" ref="A26:B26" si="2">A25+1</f>
+        <f t="shared" ref="A26:A28" si="2">A25+1</f>
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -1940,45 +2005,65 @@
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="41"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="34"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+    </row>
+    <row r="27" spans="1:10" ht="65" customHeight="1">
+      <c r="A27" s="41">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="34"/>
+      <c r="E27" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+    </row>
+    <row r="28" spans="1:10" ht="64" customHeight="1">
+      <c r="A28" s="41">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="17"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="18"/>
       <c r="C29" s="34"/>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="17"/>
@@ -1992,23 +2077,43 @@
       <c r="I30" s="22"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
+  <mergeCells count="22">
+    <mergeCell ref="F29:I29"/>
     <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -2024,17 +2129,21 @@
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F12:I13"/>
     <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F47" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F49" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D31" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C33" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoVueComponentTask.xlsx
+++ b/meta/program/BlancoVueComponentTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F246699F-2958-F648-A516-3AD0866BA5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6999EFE3-1EBD-6A4A-BAA9-D895AA22737D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="3320" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -580,6 +580,47 @@
     </rPh>
     <rPh sb="82" eb="84">
       <t xml:space="preserve">シヨウシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>menuItemInterface</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>未指定または空文字でなかった場合に、指定されたMenuItem interfaceを使用して。メニュー情報データを各画面コンポーネントの配置場所に作成します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ミシテイ </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">カラモジ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">バアイニ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シテイサレタ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">ジョウホウ </t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t xml:space="preserve">カク </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">ガメｎ </t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t xml:space="preserve">バショニ </t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t xml:space="preserve">サクセイ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1160,18 +1201,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,12 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,6 +1226,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,10 +1619,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F30" sqref="F30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1627,10 +1668,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
@@ -1639,10 +1680,10 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
@@ -1653,10 +1694,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1667,10 +1708,10 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1701,38 +1742,38 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="36">
@@ -1748,12 +1789,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="41">
@@ -1770,12 +1811,12 @@
       <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="41">
@@ -1792,12 +1833,12 @@
       <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41">
@@ -1920,12 +1961,12 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:10" ht="52" customHeight="1">
       <c r="A23" s="41">
@@ -1942,12 +1983,12 @@
       <c r="E23" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="41" customHeight="1">
       <c r="A24" s="54">
@@ -1962,12 +2003,12 @@
       </c>
       <c r="D24" s="56"/>
       <c r="E24" s="49"/>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="46" customHeight="1">
@@ -1985,16 +2026,16 @@
       <c r="E25" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="64"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" spans="1:10" ht="65" customHeight="1">
       <c r="A26" s="41">
-        <f t="shared" ref="A26:A28" si="2">A25+1</f>
+        <f t="shared" ref="A26:A29" si="2">A25+1</f>
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -2005,12 +2046,12 @@
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:10" ht="65" customHeight="1">
       <c r="A27" s="41">
@@ -2027,12 +2068,12 @@
       <c r="E27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="64"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="1:10" ht="64" customHeight="1">
       <c r="A28" s="41">
@@ -2047,34 +2088,43 @@
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="52"/>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="64"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="41"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="34"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
+    </row>
+    <row r="29" spans="1:10" ht="64" customHeight="1">
+      <c r="A29" s="41">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="17"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="18"/>
       <c r="C30" s="34"/>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="17"/>
@@ -2099,19 +2149,37 @@
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F30:I30"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="A6:B6"/>
@@ -2127,23 +2195,17 @@
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F49" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F50" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D33" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D34" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C33" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C34" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoVueComponentTask.xlsx
+++ b/meta/program/BlancoVueComponentTask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6999EFE3-1EBD-6A4A-BAA9-D895AA22737D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D29543-C86F-DD4E-96A5-1676D30137C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="3320" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -621,6 +621,36 @@
     </rPh>
     <rPh sb="73" eb="75">
       <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>menuItemDescription</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"description"</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MenuItem の description に割り当てる項目名を指定します。項目名にはClassStructure で定義しているプロパティ名を使用します。</t>
+    <rPh sb="29" eb="32">
+      <t xml:space="preserve">コウモクメイヲ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t xml:space="preserve">コウモクメイニ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t xml:space="preserve">メイヲ </t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t xml:space="preserve">シヨウシマス。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1209,6 +1239,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1240,17 +1281,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1619,10 +1649,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:I30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1668,10 +1698,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
@@ -1680,10 +1710,10 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
@@ -1694,10 +1724,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1708,10 +1738,10 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1742,38 +1772,38 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="36">
@@ -1789,12 +1819,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="64"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="41">
@@ -1811,12 +1841,12 @@
       <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="41">
@@ -1833,12 +1863,12 @@
       <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41">
@@ -1941,12 +1971,12 @@
       <c r="E21" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="76"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="56" customHeight="1">
       <c r="A22" s="41">
@@ -2035,7 +2065,7 @@
     </row>
     <row r="26" spans="1:10" ht="65" customHeight="1">
       <c r="A26" s="41">
-        <f t="shared" ref="A26:A29" si="2">A25+1</f>
+        <f t="shared" ref="A26:A30" si="2">A25+1</f>
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -2116,26 +2146,37 @@
       <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="41"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="34"/>
+      <c r="A30" s="41">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="58"/>
+      <c r="E30" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>69</v>
+      </c>
       <c r="G30" s="59"/>
       <c r="H30" s="59"/>
       <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="17"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="18"/>
       <c r="C31" s="34"/>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="17"/>
@@ -2160,26 +2201,31 @@
       <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
+  <mergeCells count="24">
     <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="A6:B6"/>
@@ -2195,17 +2241,24 @@
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F50" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D34" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D35" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C34" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C35" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoVueComponentTask.xlsx
+++ b/meta/program/BlancoVueComponentTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D29543-C86F-DD4E-96A5-1676D30137C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F2B9F7-8295-9648-9C2C-DC838D6DA4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -651,6 +651,56 @@
     </rPh>
     <rPh sb="73" eb="75">
       <t xml:space="preserve">シヨウシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>permissionKindMap</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>未指定または空文字でなかった場合に、対象ディレクトリ内の自動生成した権限種別をキーとして、componentId の配列を返す連想配列を生成します。ファイル名は . 区切りの配置場所を含めて指定します。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ミシテイ </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">カラモジ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">バアイニ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">タイショウディレクトリ </t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t xml:space="preserve">ケンゲンシュベツ </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t xml:space="preserve">カエス </t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t xml:space="preserve">レンソウハイレツ </t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t xml:space="preserve">クギリ </t>
+    </rPh>
+    <rPh sb="87" eb="91">
+      <t xml:space="preserve">ハイチバショ </t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t xml:space="preserve">フクメテ </t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t xml:space="preserve">シテイシマス。 </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1125,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1222,9 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1239,17 +1286,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1281,6 +1317,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1649,10 +1696,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:I31"/>
+      <selection activeCell="F32" sqref="F32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1698,10 +1745,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
@@ -1710,10 +1757,10 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
@@ -1724,10 +1771,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1738,10 +1785,10 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1772,38 +1819,38 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="36">
@@ -1819,12 +1866,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="41">
@@ -1841,16 +1888,16 @@
       <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="41">
-        <f t="shared" ref="A16:A24" si="0">A15+1</f>
+        <f t="shared" ref="A16:A31" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="42" t="s">
@@ -1863,12 +1910,12 @@
       <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41">
@@ -1971,12 +2018,12 @@
       <c r="E21" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
     </row>
     <row r="22" spans="1:10" ht="56" customHeight="1">
       <c r="A22" s="41">
@@ -1991,12 +2038,12 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:10" ht="52" customHeight="1">
       <c r="A23" s="41">
@@ -2013,37 +2060,37 @@
       <c r="E23" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
-    </row>
-    <row r="24" spans="1:10" s="57" customFormat="1" ht="41" customHeight="1">
-      <c r="A24" s="54">
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
+    </row>
+    <row r="24" spans="1:10" s="56" customFormat="1" ht="41" customHeight="1">
+      <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="49"/>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="46" customHeight="1">
       <c r="A25" s="41">
-        <f t="shared" ref="A25" si="1">A24+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -2056,16 +2103,16 @@
       <c r="E25" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:10" ht="65" customHeight="1">
       <c r="A26" s="41">
-        <f t="shared" ref="A26:A30" si="2">A25+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -2076,16 +2123,16 @@
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
     </row>
     <row r="27" spans="1:10" ht="65" customHeight="1">
       <c r="A27" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -2098,16 +2145,16 @@
       <c r="E27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:10" ht="64" customHeight="1">
       <c r="A28" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B28" s="18" t="s">
@@ -2118,16 +2165,16 @@
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="52"/>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:10" ht="64" customHeight="1">
       <c r="A29" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B29" s="18" t="s">
@@ -2138,16 +2185,16 @@
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B30" s="18" t="s">
@@ -2160,45 +2207,54 @@
       <c r="E30" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="41"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="34"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+    </row>
+    <row r="31" spans="1:10" ht="65" customHeight="1">
+      <c r="A31" s="41">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="F31" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="17"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="18"/>
       <c r="C32" s="34"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="17"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="18"/>
       <c r="C33" s="34"/>
       <c r="D33" s="19"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="22"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="17"/>
@@ -2212,20 +2268,52 @@
       <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F33:I33"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="A6:B6"/>
@@ -2240,25 +2328,17 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F51" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F53" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D35" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D37" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C35" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C37" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoVueComponentTask.xlsx
+++ b/meta/program/BlancoVueComponentTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F2B9F7-8295-9648-9C2C-DC838D6DA4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09A1497-509E-C64E-BD1C-ECDCCB8BA609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16120" yWindow="2420" windowWidth="28800" windowHeight="17500" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -701,6 +701,26 @@
     </rPh>
     <rPh sb="95" eb="97">
       <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>strictNullable</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Nullable な property に対して、? の付与をやめて | undefined | null の定義を行う。false の場合は ? が付与されて | undefined のみ付与される。</t>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1286,6 +1306,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1317,17 +1348,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1696,10 +1716,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:I32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1745,10 +1765,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
@@ -1757,10 +1777,10 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
@@ -1771,10 +1791,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1785,10 +1805,10 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="60"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1819,38 +1839,38 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="36">
@@ -1866,12 +1886,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="41">
@@ -1888,16 +1908,16 @@
       <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="41">
-        <f t="shared" ref="A16:A31" si="0">A15+1</f>
+        <f t="shared" ref="A16:A32" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="42" t="s">
@@ -1910,12 +1930,12 @@
       <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41">
@@ -2018,12 +2038,12 @@
       <c r="E21" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
     </row>
     <row r="22" spans="1:10" ht="56" customHeight="1">
       <c r="A22" s="41">
@@ -2235,37 +2255,48 @@
       <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="41"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="34"/>
+      <c r="A32" s="41">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
+      <c r="E32" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="41"/>
       <c r="B33" s="18"/>
       <c r="C33" s="34"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="57"/>
       <c r="G33" s="58"/>
       <c r="H33" s="58"/>
       <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="17"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="18"/>
       <c r="C34" s="34"/>
       <c r="D34" s="19"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="17"/>
@@ -2290,30 +2321,30 @@
       <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="A6:B6"/>
@@ -2328,17 +2359,28 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F30:I30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F53" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F54" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D37" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C37" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C38" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoVueComponentTask.xlsx
+++ b/meta/program/BlancoVueComponentTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09A1497-509E-C64E-BD1C-ECDCCB8BA609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97216F4-4CE4-D34B-A422-11BBB10D4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16120" yWindow="2420" windowWidth="28800" windowHeight="17500" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -722,6 +722,42 @@
     <rPh sb="38" eb="40">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>supportedVueVersion</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>対応する vuejs のバージョンを指定します。middle バージョンの違いで動作が変わる場合があるので、文字列として定義します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シテイシマス。 </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">チガイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">ドウサガ </t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t xml:space="preserve">カワル </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">バアイガ </t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>3.4</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1195,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1297,6 +1333,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1716,10 +1753,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:I33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1765,10 +1802,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
@@ -1777,10 +1814,10 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
@@ -1791,10 +1828,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1805,10 +1842,10 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1839,38 +1876,38 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="36">
@@ -1886,12 +1923,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="41">
@@ -1908,16 +1945,16 @@
       <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="41">
-        <f t="shared" ref="A16:A32" si="0">A15+1</f>
+        <f t="shared" ref="A16:A33" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="42" t="s">
@@ -1930,12 +1967,12 @@
       <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41">
@@ -2038,12 +2075,12 @@
       <c r="E21" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="56" customHeight="1">
       <c r="A22" s="41">
@@ -2058,12 +2095,12 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:10" ht="52" customHeight="1">
       <c r="A23" s="41">
@@ -2080,12 +2117,12 @@
       <c r="E23" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="41" customHeight="1">
       <c r="A24" s="41">
@@ -2100,12 +2137,12 @@
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="49"/>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="46" customHeight="1">
@@ -2123,12 +2160,12 @@
       <c r="E25" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" spans="1:10" ht="65" customHeight="1">
       <c r="A26" s="41">
@@ -2143,12 +2180,12 @@
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:10" ht="65" customHeight="1">
       <c r="A27" s="41">
@@ -2165,12 +2202,12 @@
       <c r="E27" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="1:10" ht="64" customHeight="1">
       <c r="A28" s="41">
@@ -2185,12 +2222,12 @@
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="52"/>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="64" customHeight="1">
       <c r="A29" s="41">
@@ -2205,12 +2242,12 @@
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="41">
@@ -2227,12 +2264,12 @@
       <c r="E30" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
     </row>
     <row r="31" spans="1:10" ht="65" customHeight="1">
       <c r="A31" s="41">
@@ -2247,12 +2284,12 @@
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="41">
@@ -2277,37 +2314,48 @@
       <c r="I32" s="22"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="41"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="41">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="D33" s="19"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+      <c r="E33" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="41"/>
       <c r="B34" s="18"/>
       <c r="C34" s="34"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="17"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="18"/>
       <c r="C35" s="34"/>
       <c r="D35" s="19"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="17"/>
@@ -2332,19 +2380,30 @@
       <c r="I37" s="22"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="A6:B6"/>
@@ -2359,7 +2418,7 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F29:I29"/>
@@ -2373,14 +2432,14 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F54" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F55" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23 D25:D39" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C38" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23 C25:C39" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>
